--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed5/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.2863</v>
+        <v>16.3795</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.938400000000003</v>
+        <v>-8.713800000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>16.03370000000001</v>
+        <v>16.25419999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.1917</v>
+        <v>-7.405199999999999</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.5312</v>
+        <v>17.35350000000001</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.95440000000001</v>
+        <v>-21.80720000000001</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.57840000000001</v>
+        <v>-21.54900000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.627100000000005</v>
+        <v>-7.433600000000005</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.81710000000001</v>
+        <v>-21.71449999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.36160000000001</v>
+        <v>16.35840000000001</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.24850000000001</v>
+        <v>16.20000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.956</v>
+        <v>16.00509999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.16940000000001</v>
+        <v>17.17010000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.7956</v>
+        <v>-8.744200000000006</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.81659999999999</v>
+        <v>-21.9765</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,12 +899,12 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.4627</v>
+        <v>16.5029</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.06990000000001</v>
+        <v>-22.02270000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.7042</v>
+        <v>16.51600000000001</v>
       </c>
     </row>
     <row r="29">
@@ -950,12 +950,12 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.61080000000001</v>
+        <v>15.7892</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.7546</v>
+        <v>-21.85750000000001</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.807200000000005</v>
+        <v>-9.241199999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.3402</v>
+        <v>-21.39919999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>15.52509999999999</v>
+        <v>15.493</v>
       </c>
     </row>
     <row r="33">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.331499999999989</v>
+        <v>-9.120699999999992</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.62170000000001</v>
+        <v>-20.39780000000001</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.088799999999999</v>
+        <v>-7.983599999999998</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.92850000000001</v>
+        <v>-20.38980000000002</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.1777</v>
+        <v>-7.001500000000004</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.574299999999996</v>
+        <v>-7.691199999999996</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.12719999999999</v>
+        <v>16.11119999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.2912</v>
+        <v>-7.262799999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8608</v>
+        <v>-21.87449999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.4923</v>
+        <v>16.4942</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.630599999999996</v>
+        <v>-7.592099999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.5448</v>
+        <v>-21.58969999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.31760000000001</v>
+        <v>-22.29780000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1192</v>
+        <v>-22.12390000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.728700000000003</v>
+        <v>-8.619900000000003</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.35110000000001</v>
+        <v>16.9456</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.7238</v>
+        <v>16.73659999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.47369999999998</v>
+        <v>-21.44609999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.74259999999997</v>
+        <v>-21.68569999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.87830000000001</v>
+        <v>-21.77810000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.68909999999999</v>
+        <v>-19.71629999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.08960000000002</v>
+        <v>16.98180000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.56080000000002</v>
+        <v>16.52700000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.153199999999999</v>
+        <v>-7.326600000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8573</v>
+        <v>-21.92519999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.744299999999996</v>
+        <v>-8.825699999999994</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.53909999999999</v>
+        <v>16.6605</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.969</v>
+        <v>-22.05630000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.23090000000001</v>
+        <v>17.35080000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.53280000000001</v>
+        <v>-21.43400000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.84670000000001</v>
+        <v>17.84860000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.00180000000001</v>
+        <v>17.97320000000002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.24529999999999</v>
+        <v>-21.13509999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.86619999999999</v>
+        <v>15.81369999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.8528</v>
+        <v>-19.8203</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.4465</v>
+        <v>-8.3856</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.884099999999998</v>
+        <v>-7.730599999999998</v>
       </c>
       <c r="E102" t="n">
-        <v>16.5946</v>
+        <v>16.5444</v>
       </c>
     </row>
   </sheetData>
